--- a/Lvans&Rafael/GCS02.xlsx
+++ b/Lvans&Rafael/GCS02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>html活动</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>https://i83a6l.axshare.com/#id=39vfsj&amp;p=%E5%BD%A9%E9%87%91%E9%A2%86%E5%8F%96%E8%AE%B0%E5%BD%95&amp;g=1</t>
+  </si>
+  <si>
+    <t>APP罗盘抽奖</t>
+  </si>
+  <si>
+    <t>https://app.mockplus.com/s/BPXsWGmDb3G</t>
+  </si>
+  <si>
+    <t>PC罗盘抽奖</t>
+  </si>
+  <si>
+    <t>https://lanhuapp.com/web/#/</t>
+  </si>
+  <si>
+    <t>罗盘原型</t>
+  </si>
+  <si>
+    <t>https://gmoxtw.axshare.com/#id=ihy1z5&amp;p=%E8%BD%AC%E7%9B%98%E6%B4%BB%E5%8A%A8%EF%BC%88%E6%96%B0%EF%BC%89&amp;g=1</t>
   </si>
 </sst>
 </file>
@@ -89,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,6 +139,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,6 +174,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -136,28 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,14 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,53 +250,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,28 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,11 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +554,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,16 +585,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,112 +606,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,16 +1073,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
     <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1157,6 +1175,30 @@
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1172,6 +1214,9 @@
     <hyperlink ref="B14" r:id="rId9" display="https://cafkhw.axshare.com/#id=fonf62&amp;p=%E5%B9%BF%E5%91%8A%E5%88%97%E8%A1%A81"/>
     <hyperlink ref="B16" r:id="rId10" display="https://app.mockplus.com/team/ffkykyjpzq"/>
     <hyperlink ref="B18" r:id="rId11" display="https://i83a6l.axshare.com/#id=39vfsj&amp;p=%E5%BD%A9%E9%87%91%E9%A2%86%E5%8F%96%E8%AE%B0%E5%BD%95&amp;g=1"/>
+    <hyperlink ref="B21" r:id="rId12" display="https://app.mockplus.com/s/BPXsWGmDb3G" tooltip="https://app.mockplus.com/s/BPXsWGmDb3G"/>
+    <hyperlink ref="B22" r:id="rId13" display="https://lanhuapp.com/web/#/" tooltip="https://lanhuapp.com/web/#/"/>
+    <hyperlink ref="B23" r:id="rId14" display="https://gmoxtw.axshare.com/#id=ihy1z5&amp;p=%E8%BD%AC%E7%9B%98%E6%B4%BB%E5%8A%A8%EF%BC%88%E6%96%B0%EF%BC%89&amp;g=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Lvans&Rafael/GCS02.xlsx
+++ b/Lvans&Rafael/GCS02.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="原型" sheetId="1" r:id="rId1"/>
+    <sheet name="账户" sheetId="2" r:id="rId2"/>
+    <sheet name="做的链接" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>html活动</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>https://gmoxtw.axshare.com/#id=ihy1z5&amp;p=%E8%BD%AC%E7%9B%98%E6%B4%BB%E5%8A%A8%EF%BC%88%E6%96%B0%EF%BC%89&amp;g=1</t>
+  </si>
+  <si>
+    <t>活动管理，福利管理</t>
+  </si>
+  <si>
+    <t>https://xxxd2g.axshare.com/#id=c6iqim&amp;p=%E6%96%B0%E5%A2%9E%E7%A6%8F%E5%88%A9&amp;g=1</t>
+  </si>
+  <si>
+    <t>app端抽奖接口文档</t>
+  </si>
+  <si>
+    <t>http://bobovip2.com/appApi/swagger-ui.html#/1.2.1</t>
+  </si>
+  <si>
+    <t>活动管理</t>
+  </si>
+  <si>
+    <t>http://admin.bobovip2.com/adminApi/doc.html#/home</t>
+  </si>
+  <si>
+    <t>活动管理-平台活动</t>
+  </si>
+  <si>
+    <t>http://bobovip2.com/pcApi/swagger-ui.html#/</t>
+  </si>
+  <si>
+    <t>波波社区福利模板</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/file/TvjmaWDyazg89Rmog7B9gZ/%E6%96%B0%E7%89%88%E6%9C%AC%E8%AE%BE%E8%AE%A1%E6%A8%A1%E6%9D%BF?node-id=1417%3A164</t>
   </si>
 </sst>
 </file>
@@ -107,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,8 +167,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -146,30 +227,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,23 +257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +274,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,53 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,13 +304,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,169 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,17 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +531,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -512,30 +566,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,16 +615,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,112 +636,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,16 +1103,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="2" max="2" width="135.777777777778" customWidth="1"/>
     <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1199,6 +1229,46 @@
       </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1217,6 +1287,11 @@
     <hyperlink ref="B21" r:id="rId12" display="https://app.mockplus.com/s/BPXsWGmDb3G" tooltip="https://app.mockplus.com/s/BPXsWGmDb3G"/>
     <hyperlink ref="B22" r:id="rId13" display="https://lanhuapp.com/web/#/" tooltip="https://lanhuapp.com/web/#/"/>
     <hyperlink ref="B23" r:id="rId14" display="https://gmoxtw.axshare.com/#id=ihy1z5&amp;p=%E8%BD%AC%E7%9B%98%E6%B4%BB%E5%8A%A8%EF%BC%88%E6%96%B0%EF%BC%89&amp;g=1"/>
+    <hyperlink ref="B24" r:id="rId15" display="https://xxxd2g.axshare.com/#id=c6iqim&amp;p=%E6%96%B0%E5%A2%9E%E7%A6%8F%E5%88%A9&amp;g=1"/>
+    <hyperlink ref="B26" r:id="rId16" display="http://bobovip2.com/appApi/swagger-ui.html#/1.2.1"/>
+    <hyperlink ref="B28" r:id="rId17" display="http://admin.bobovip2.com/adminApi/doc.html#/home"/>
+    <hyperlink ref="B29" r:id="rId18" display="http://bobovip2.com/pcApi/swagger-ui.html#/"/>
+    <hyperlink ref="B31" r:id="rId19" display="https://www.figma.com/file/TvjmaWDyazg89Rmog7B9gZ/%E6%96%B0%E7%89%88%E6%9C%AC%E8%AE%BE%E8%AE%A1%E6%A8%A1%E6%9D%BF?node-id=1417%3A164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1230,7 +1305,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1246,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Lvans&Rafael/GCS02.xlsx
+++ b/Lvans&Rafael/GCS02.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="原型" sheetId="1" r:id="rId1"/>
     <sheet name="账户" sheetId="2" r:id="rId2"/>
     <sheet name="做的链接" sheetId="3" r:id="rId3"/>
+    <sheet name="直播" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>html活动</t>
   </si>
@@ -130,6 +131,33 @@
   </si>
   <si>
     <t>https://www.figma.com/file/TvjmaWDyazg89Rmog7B9gZ/%E6%96%B0%E7%89%88%E6%9C%AC%E8%AE%BE%E8%AE%A1%E6%A8%A1%E6%9D%BF?node-id=1417%3A164</t>
+  </si>
+  <si>
+    <t>http://cf.bobovip8.com/pages/viewpage.action?pageId=1416335</t>
+  </si>
+  <si>
+    <t>原型-抽奖活动pc端，移动端</t>
+  </si>
+  <si>
+    <t>https://uu9qwt.axshare.com</t>
+  </si>
+  <si>
+    <t>原型-抽奖活动后台</t>
+  </si>
+  <si>
+    <t>https://npf87t.axshare.com</t>
+  </si>
+  <si>
+    <t>抽奖接口</t>
+  </si>
+  <si>
+    <t>http://zb335.com/excuse/swagger-ui.html</t>
+  </si>
+  <si>
+    <t>抽奖ui</t>
+  </si>
+  <si>
+    <t>https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share</t>
   </si>
 </sst>
 </file>
@@ -137,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,6 +202,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -183,14 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +240,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,31 +263,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,22 +311,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,21 +523,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,9 +543,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +586,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -564,8 +603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,13 +646,13 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,112 +664,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1282,7 +1310,7 @@
     <hyperlink ref="B10" r:id="rId7" display="https://mbvcnq.axshare.com/#id=ogjl4h&amp;p=页面_1&amp;g=1"/>
     <hyperlink ref="B12" r:id="rId8" display="https://lanhuapp.com/url/iKMDO"/>
     <hyperlink ref="B14" r:id="rId9" display="https://cafkhw.axshare.com/#id=fonf62&amp;p=%E5%B9%BF%E5%91%8A%E5%88%97%E8%A1%A81"/>
-    <hyperlink ref="B16" r:id="rId10" display="https://app.mockplus.com/team/ffkykyjpzq"/>
+    <hyperlink ref="B16" r:id="rId10" display="https://app.mockplus.com/team/ffkykyjpzq" tooltip="https://app.mockplus.com/team/ffkykyjpzq"/>
     <hyperlink ref="B18" r:id="rId11" display="https://i83a6l.axshare.com/#id=39vfsj&amp;p=%E5%BD%A9%E9%87%91%E9%A2%86%E5%8F%96%E8%AE%B0%E5%BD%95&amp;g=1"/>
     <hyperlink ref="B21" r:id="rId12" display="https://app.mockplus.com/s/BPXsWGmDb3G" tooltip="https://app.mockplus.com/s/BPXsWGmDb3G"/>
     <hyperlink ref="B22" r:id="rId13" display="https://lanhuapp.com/web/#/" tooltip="https://lanhuapp.com/web/#/"/>
@@ -1302,14 +1330,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://cf.bobovip8.com/pages/viewpage.action?pageId=1416335"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1321,7 +1362,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1331,4 +1372,63 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://npf87t.axshare.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://uu9qwt.axshare.com" tooltip="https://uu9qwt.axshare.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://zb335.com/excuse/swagger-ui.html" tooltip="http://zb335.com/excuse/swagger-ui.html"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share" tooltip="https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Lvans&Rafael/GCS02.xlsx
+++ b/Lvans&Rafael/GCS02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="原型" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>html活动</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share</t>
+  </si>
+  <si>
+    <t>2022-3任务</t>
+  </si>
+  <si>
+    <t>http://cf.lyxz8.com/pages/viewpage.action?pageId=4392178</t>
   </si>
 </sst>
 </file>
@@ -165,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,84 +202,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,6 +276,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -293,14 +291,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -308,16 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,27 +532,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -563,6 +552,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,15 +590,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -602,9 +597,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +620,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,16 +649,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,112 +670,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,13 +1383,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -1421,12 +1427,21 @@
         <v>46</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://npf87t.axshare.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://uu9qwt.axshare.com" tooltip="https://uu9qwt.axshare.com"/>
     <hyperlink ref="B4" r:id="rId3" display="http://zb335.com/excuse/swagger-ui.html" tooltip="http://zb335.com/excuse/swagger-ui.html"/>
     <hyperlink ref="B6" r:id="rId4" display="https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share" tooltip="https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share"/>
+    <hyperlink ref="B9" r:id="rId5" display="http://cf.lyxz8.com/pages/viewpage.action?pageId=4392178"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Lvans&Rafael/GCS02.xlsx
+++ b/Lvans&Rafael/GCS02.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>html活动</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>http://cf.lyxz8.com/pages/viewpage.action?pageId=4392178</t>
+  </si>
+  <si>
+    <t>2022-4任务</t>
+  </si>
+  <si>
+    <t>http://cf.lyxz8.com/pages/viewpage.action?pageId=4403136</t>
+  </si>
+  <si>
+    <t>http://zb335.com/excuse/swagger-ui.html?urls.primaryName=%E5%9B%9B%E6%9C%88%E9%9C%80%E6%B1%82#/</t>
+  </si>
+  <si>
+    <t>https://gd0gey.axshare.com/#id=tm7dsp&amp;p=%E7%9B%B4%E6%92%AD&amp;g=1</t>
+  </si>
+  <si>
+    <t>https://h5g3aq.axshare.com/#id=6xsf53&amp;p=%E6%88%91%E7%9A%84&amp;g=1</t>
   </si>
 </sst>
 </file>
@@ -171,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -202,12 +217,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -217,24 +276,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,77 +291,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,13 +353,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,103 +425,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,61 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,30 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,18 +581,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +612,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -637,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,16 +664,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,116 +685,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +802,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,16 +1401,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1435,13 +1453,46 @@
         <v>48</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://npf87t.axshare.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://uu9qwt.axshare.com" tooltip="https://uu9qwt.axshare.com"/>
     <hyperlink ref="B4" r:id="rId3" display="http://zb335.com/excuse/swagger-ui.html" tooltip="http://zb335.com/excuse/swagger-ui.html"/>
     <hyperlink ref="B6" r:id="rId4" display="https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share" tooltip="https://app.mockplus.com/app/j2p293wR4Xj/design?hmsr=share"/>
     <hyperlink ref="B9" r:id="rId5" display="http://cf.lyxz8.com/pages/viewpage.action?pageId=4392178"/>
+    <hyperlink ref="B13" r:id="rId6" display="http://zb335.com/excuse/swagger-ui.html?urls.primaryName=%E5%9B%9B%E6%9C%88%E9%9C%80%E6%B1%82#/" tooltip="http://zb335.com/excuse/swagger-ui.html?urls.primaryName=%E5%9B%9B%E6%9C%88%E9%9C%80%E6%B1%82#/"/>
+    <hyperlink ref="B12" r:id="rId7" display="http://cf.lyxz8.com/pages/viewpage.action?pageId=4403136" tooltip="http://cf.lyxz8.com/pages/viewpage.action?pageId=4403136"/>
+    <hyperlink ref="B14" r:id="rId8" display="https://gd0gey.axshare.com/#id=tm7dsp&amp;p=%E7%9B%B4%E6%92%AD&amp;g=1"/>
+    <hyperlink ref="B15" r:id="rId9" display="https://h5g3aq.axshare.com/#id=6xsf53&amp;p=%E6%88%91%E7%9A%84&amp;g=1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
